--- a/Exposiciones/S1M22020_Exposiciones.xlsx
+++ b/Exposiciones/S1M22020_Exposiciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9945" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Fecha de exposición</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>React (Facebook)</t>
+  </si>
+  <si>
+    <t>Problemas con su ejemplo. No presentaron ejemplo de terceros.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +773,12 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="19"/>
+      <c r="M9" s="19">
+        <v>3</v>
+      </c>
       <c r="N9" s="19">
         <f>SUM(G9:M9)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -799,7 +804,9 @@
     </row>
     <row r="11" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
